--- a/data/metadata/cv_metadata_llama3_with_score.xlsx
+++ b/data/metadata/cv_metadata_llama3_with_score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,11 +484,16 @@
           <t>score</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nicolas Thomas Guide Accompagnateur</t>
+          <t>Nicolas Thomas</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -531,11 +536,12 @@
       <c r="J2" t="n">
         <v>47.69</v>
       </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ismael Panier</t>
+          <t>Ismael Panier Pro</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -573,11 +579,12 @@
       <c r="J3" t="n">
         <v>17.92</v>
       </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Reda Aboudi</t>
+          <t>Redaali Ab Oudi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -624,11 +631,12 @@
       <c r="J4" t="n">
         <v>69.09999999999999</v>
       </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Formation Scolaire : Langues Et Hobbies :</t>
+          <t>Adamhaddad Pro</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -670,11 +678,12 @@
       <c r="J5" t="n">
         <v>26.67</v>
       </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sql Php</t>
+          <t>Nassim Berkhli</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -721,11 +730,12 @@
       <c r="J6" t="n">
         <v>18.45</v>
       </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Stage Assistant</t>
+          <t>Kamilia Bennis</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -763,11 +773,12 @@
       <c r="J7" t="n">
         <v>8.67</v>
       </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Data Analytics</t>
+          <t>Lucas Schummer</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -814,11 +825,12 @@
       <c r="J8" t="n">
         <v>62.49</v>
       </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">B Toeic </t>
+          <t>Nathangarrido</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -861,6 +873,7 @@
       <c r="J9" t="n">
         <v>51.64</v>
       </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -912,13 +925,10 @@
       <c r="J10" t="n">
         <v>12.58</v>
       </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>C E N T R E S D ’ I N T É R Ê T</t>
-        </is>
-      </c>
+      <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
           <t>Technicien helpdesk</t>
@@ -950,11 +960,12 @@
       <c r="J11" t="n">
         <v>70.02</v>
       </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mehdi Mansour</t>
+          <t>Mehdi Mans Ourpro</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -997,11 +1008,12 @@
       <c r="J12" t="n">
         <v>65.03</v>
       </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Chloé Leroy Chauffagiste</t>
+          <t>Chloe Leroy</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1040,11 +1052,12 @@
       <c r="J13" t="n">
         <v>43.48</v>
       </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>57650 Fontoy Profil</t>
+          <t>Yannph</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1092,11 +1105,12 @@
       <c r="J14" t="n">
         <v>73.84999999999999</v>
       </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Eya WALHA</t>
+          <t>Walhaeyaa</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1143,11 +1157,12 @@
       <c r="J15" t="n">
         <v>46.83</v>
       </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Licence Mathématiques</t>
+          <t>Adamdj Oubert</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1193,11 +1208,12 @@
       <c r="J16" t="n">
         <v>40.54</v>
       </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Stephen King</t>
+          <t>Baptiste F Oucras Pro</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1243,6 +1259,7 @@
       <c r="J17" t="n">
         <v>67.15000000000001</v>
       </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1281,11 +1298,12 @@
       <c r="J18" t="n">
         <v>38.35</v>
       </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Théo Danel</t>
+          <t>Danel Theo Pro</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1332,11 +1350,12 @@
       <c r="J19" t="n">
         <v>44.62</v>
       </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>France Uphf</t>
+          <t>Jedidiahmedyassine</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1383,11 +1402,12 @@
       <c r="J20" t="n">
         <v>46.37</v>
       </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lycée Frédéric</t>
+          <t>Idir Saidani</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1426,11 +1446,12 @@
       <c r="J21" t="n">
         <v>22.6</v>
       </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C E N T R E S D ’ I N T É R Ê T S</t>
+          <t>Maxime Ribes</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1469,11 +1490,12 @@
       <c r="J22" t="n">
         <v>1.65</v>
       </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A D A M A D O U M B I A</t>
+          <t>Adama D Oumbia</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1512,11 +1534,12 @@
       <c r="J23" t="n">
         <v>76.56999999999999</v>
       </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Quentin Durand Technicien Informatique</t>
+          <t>Quentin Durand</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1555,9 +1578,14 @@
       <c r="J24" t="n">
         <v>13.73</v>
       </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Ayadilamia</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
@@ -1594,11 +1622,12 @@
       <c r="J25" t="n">
         <v>58.84</v>
       </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Mathematical Foundations</t>
+          <t>Nail Letty</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1638,11 +1667,12 @@
       <c r="J26" t="n">
         <v>26.21</v>
       </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Société Trai</t>
+          <t>Rayman Ayari</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1685,11 +1715,12 @@
       <c r="J27" t="n">
         <v>43.92</v>
       </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Développeur Io</t>
+          <t>Oussama Elmessa Oudi</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1732,11 +1763,16 @@
       <c r="J28" t="n">
         <v>81.64</v>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>assets\photo\Capture d’écran_2-11-2025_23330_.jpeg</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Objectif Professionnel</t>
+          <t>Ayman Lam Ouri</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1783,13 +1819,10 @@
       <c r="J29" t="n">
         <v>33.82</v>
       </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Centres Dintérêts</t>
-        </is>
-      </c>
+      <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
           <t>Premier poste</t>
@@ -1826,11 +1859,12 @@
       <c r="J30" t="n">
         <v>85.22</v>
       </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Stage Développement</t>
+          <t>Theo Spetebroot</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1869,6 +1903,7 @@
       <c r="J31" t="n">
         <v>13.68</v>
       </c>
+      <c r="K31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
